--- a/import/feasible-path.xlsx
+++ b/import/feasible-path.xlsx
@@ -16,7 +16,7 @@
     <author>Nghia Doan</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -25,11 +25,12 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>Nghia Doan:
-It enables execution of the state</t>
+List of items, can be files, entries, documents, etc anything that needs tracking, monitoring, or add information to the working process.
+In case if it is a list, use the pipe “|” character to separate the items.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,11 +53,20 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>Nghia Doan:
-Among the states following the current one, which ones should be activated?
-It can be:
-- no condition, the single next state should be activated
-- identification of a single chosen state (among many others)
-- true/false or multiple choice values for following states</t>
+Already exists (Y) or placeholder for future (N)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+Additional states to be connected to</t>
         </r>
       </text>
     </comment>
@@ -69,7 +79,7 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>Nghia Doan:
-Additional states to be connected to</t>
+Already exists (Y) or placeholder for future (N)</t>
         </r>
       </text>
     </comment>
@@ -78,15 +88,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
-  <si>
-    <t>Identification</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>start_state</t>
   </si>
   <si>
     <t>case-1</t>
@@ -98,39 +111,39 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Input Items</t>
-  </si>
-  <si>
-    <t>Execution Condition</t>
-  </si>
-  <si>
-    <t>Output Items</t>
-  </si>
-  <si>
-    <t>Routing Condition</t>
-  </si>
-  <si>
-    <t>Existing</t>
-  </si>
-  <si>
-    <t>Also connected to</t>
-  </si>
-  <si>
     <t>begin-case-1</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>actors</t>
+  </si>
+  <si>
+    <t>input_items</t>
+  </si>
+  <si>
+    <t>output_items</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>route_completed</t>
+  </si>
+  <si>
+    <t>alternate_routes</t>
+  </si>
+  <si>
+    <t>alternate_routes_completed</t>
+  </si>
+  <si>
     <t>BEGIN</t>
   </si>
   <si>
@@ -149,9 +162,6 @@
     <t>Authorization issued on November 9, 2018.</t>
   </si>
   <si>
-    <t>Hydro and Flows Regulatory Review</t>
-  </si>
-  <si>
     <t>Case application</t>
   </si>
   <si>
@@ -168,12 +178,6 @@
   </si>
   <si>
     <t>begin-monitoring-report-case-1</t>
-  </si>
-  <si>
-    <t>end-case-1</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Begin monitoring and report for avoidance and mitigation</t>
@@ -187,7 +191,7 @@
 5 criteria to assess the implementation and effectiveness of the measures</t>
   </si>
   <si>
-    <t>decision-report-case-1</t>
+    <t>report-1-case-1</t>
   </si>
   <si>
     <t>site-visit-case-1</t>
@@ -196,22 +200,16 @@
     <t>DFO site visit</t>
   </si>
   <si>
-    <t>report-1-case-1</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
     <t>Interim report 1 on effectiveness</t>
   </si>
   <si>
-    <t>December 31, 2019</t>
-  </si>
-  <si>
-    <t>Proponent</t>
-  </si>
-  <si>
-    <t>Monitoring report</t>
+    <t>Parks Canada</t>
+  </si>
+  <si>
+    <t>Interim report 1</t>
   </si>
   <si>
     <t>receive-report-1-case-1</t>
@@ -223,25 +221,22 @@
     <t>Report received</t>
   </si>
   <si>
-    <t>November 29, 2019</t>
-  </si>
-  <si>
-    <t>Verified monitoring report</t>
+    <t>Verified interim report 1</t>
   </si>
   <si>
     <t>report-2-case-1</t>
   </si>
   <si>
-    <t>Interim report  on effectiveness</t>
-  </si>
-  <si>
-    <t>December 31, 2020</t>
+    <t>Interim report 2 on effectiveness</t>
+  </si>
+  <si>
+    <t>Interim report 2</t>
   </si>
   <si>
     <t>receive-report-2-case-1</t>
   </si>
   <si>
-    <t>December 22, 2020</t>
+    <t>Verified interim report 2</t>
   </si>
   <si>
     <t>report-3-case-1</t>
@@ -250,10 +245,10 @@
     <t>Final report  on effectiveness</t>
   </si>
   <si>
-    <t>December 31, 2021</t>
-  </si>
-  <si>
-    <t>decision-monitoring-report-case—1</t>
+    <t>decision-monitoring-report-case-1</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Decision for monitoring report</t>
@@ -262,7 +257,7 @@
     <t>All monitoring reports</t>
   </si>
   <si>
-    <t>All monitoring reports received</t>
+    <t>All verified monitoring reports</t>
   </si>
   <si>
     <t>end-monitoring-report-case-1</t>
@@ -272,6 +267,9 @@
   </si>
   <si>
     <t>End monitoring and report for avoidance and mitigation</t>
+  </si>
+  <si>
+    <t>end-case-1</t>
   </si>
   <si>
     <t>End case</t>
@@ -283,7 +281,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="mmmm d, yyyy"/>
+    <numFmt numFmtId="59" formatCode="yyyy-mm -dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -323,18 +321,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -362,7 +360,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -374,10 +372,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -389,22 +387,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -428,13 +426,13 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -443,7 +441,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,10 +453,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,16 +471,91 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -528,7 +601,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -536,97 +609,139 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,8 +762,10 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ffeaeaea"/>
+      <rgbColor rgb="ff7f7f7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1711,16 +1828,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5156" style="1" customWidth="1"/>
-    <col min="9" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.9766" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.4219" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.7" customHeight="1">
@@ -1733,504 +1851,459 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" t="s" s="5">
+        <v>3</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="68.7" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="9">
+      <c r="A2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="B2" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="C2" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="3">
+      <c r="B4" t="s" s="20">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="20">
         <v>1</v>
       </c>
-      <c r="D4" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s" s="3">
+      <c r="D4" t="s" s="20">
         <v>9</v>
       </c>
-      <c r="G4" t="s" s="3">
+      <c r="E4" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="3">
+      <c r="F4" t="s" s="20">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="3">
+      <c r="G4" t="s" s="20">
         <v>12</v>
       </c>
-      <c r="J4" t="s" s="3">
+      <c r="H4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="K4" t="s" s="3">
+      <c r="I4" t="s" s="20">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="3">
+      <c r="J4" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="M4" t="s" s="4">
-        <v>14</v>
+      <c r="K4" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s" s="22">
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" t="s" s="17">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s" s="18">
+      <c r="A5" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" t="s" s="18">
+      <c r="C5" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="K5" t="s" s="18">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" t="s" s="20">
-        <v>20</v>
-      </c>
+      <c r="J5" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" ht="320.05" customHeight="1">
-      <c r="A6" t="s" s="21">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s" s="22">
+      <c r="A6" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="30">
+        <v>23</v>
+      </c>
+      <c r="D6" s="31">
+        <v>43413</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" t="s" s="30">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D6" s="23">
-        <v>43413</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" t="s" s="22">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s" s="22">
-        <v>24</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" t="s" s="22">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s" s="22">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s" s="22">
-        <v>20</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" t="s" s="25">
-        <v>20</v>
-      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" ht="56.05" customHeight="1">
-      <c r="A7" t="s" s="26">
+      <c r="A7" t="s" s="35">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="27">
+      <c r="B7" t="s" s="36">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="27">
+      <c r="C7" t="s" s="36">
         <v>28</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" t="s" s="27">
+      <c r="D7" s="37">
+        <v>43413</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" t="s" s="36">
         <v>29</v>
       </c>
-      <c r="K7" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s" s="29">
-        <v>31</v>
-      </c>
+      <c r="J7" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" ht="164.05" customHeight="1">
-      <c r="A8" t="s" s="26">
+      <c r="A8" t="s" s="35">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="27">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s" s="27">
+      <c r="B8" t="s" s="36">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s" s="36">
+        <v>30</v>
+      </c>
+      <c r="D8" s="37">
+        <v>43413</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" t="s" s="36">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s" s="27">
+      <c r="I8" t="s" s="36">
         <v>33</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" t="s" s="27">
+      <c r="J8" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s" s="36">
         <v>34</v>
       </c>
-      <c r="J8" t="s" s="27">
+      <c r="L8" t="s" s="41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="36">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="36">
         <v>35</v>
       </c>
-      <c r="K8" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s" s="27">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="26">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s" s="27">
+      <c r="D9" s="37">
+        <v>43767</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s" s="39">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="27">
-        <v>37</v>
-      </c>
-      <c r="D9" s="30">
-        <v>43767</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" t="s" s="27">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" t="s" s="29">
-        <v>20</v>
-      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="26">
+      <c r="A10" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="36">
+        <v>37</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37">
+        <v>43830</v>
+      </c>
+      <c r="F10" t="s" s="36">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="27">
+      <c r="G10" s="38"/>
+      <c r="H10" t="s" s="36">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="27">
+      <c r="I10" t="s" s="36">
         <v>40</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" t="s" s="27">
+      <c r="J10" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="36">
         <v>41</v>
       </c>
-      <c r="F10" t="s" s="27">
+      <c r="C11" t="s" s="36">
         <v>42</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" t="s" s="27">
+      <c r="D11" s="37">
+        <v>43798</v>
+      </c>
+      <c r="E11" s="37">
+        <v>43798</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" t="s" s="36">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s" s="36">
         <v>43</v>
       </c>
-      <c r="J10" t="s" s="27">
+      <c r="I11" t="s" s="36">
         <v>44</v>
       </c>
-      <c r="K10" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" t="s" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="26">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s" s="27">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s" s="27">
-        <v>46</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" t="s" s="27">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s" s="27">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s" s="27">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s" s="27">
-        <v>49</v>
-      </c>
-      <c r="K11" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" t="s" s="29">
-        <v>20</v>
-      </c>
+      <c r="J11" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="26">
+      <c r="A12" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s" s="36">
+        <v>45</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37">
+        <v>44196</v>
+      </c>
+      <c r="F12" t="s" s="36">
+        <v>38</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" t="s" s="36">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s" s="36">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="36">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s" s="36">
+        <v>42</v>
+      </c>
+      <c r="D13" s="37">
+        <v>44187</v>
+      </c>
+      <c r="E13" s="37">
+        <v>44187</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" t="s" s="36">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s" s="36">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s" s="36">
         <v>49</v>
       </c>
-      <c r="B12" t="s" s="27">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s" s="27">
+      <c r="J13" t="s" s="39">
+        <v>21</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" ht="44.05" customHeight="1">
+      <c r="A14" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="36">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s" s="36">
         <v>50</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" t="s" s="27">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37">
+        <v>44561</v>
+      </c>
+      <c r="F14" t="s" s="36">
+        <v>38</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="42"/>
+      <c r="I14" t="s" s="43">
         <v>51</v>
       </c>
-      <c r="F12" t="s" s="27">
-        <v>42</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s" s="27">
+      <c r="J14" t="s" s="39">
         <v>52</v>
       </c>
-      <c r="K12" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" t="s" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" t="s" s="26">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s" s="27">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s" s="27">
-        <v>46</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" t="s" s="27">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s" s="27">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s" s="27">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s" s="27">
-        <v>49</v>
-      </c>
-      <c r="K13" t="s" s="27">
-        <v>20</v>
-      </c>
-      <c r="L13" s="28"/>
-      <c r="M13" t="s" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" t="s" s="26">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s" s="27">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s" s="27">
-        <v>55</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" t="s" s="27">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s" s="27">
-        <v>42</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" t="s" s="27">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s" s="27">
-        <v>31</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" t="s" s="29">
-        <v>31</v>
-      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s" s="27">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s" s="27">
-        <v>58</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" t="s" s="27">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s" s="27">
-        <v>59</v>
-      </c>
-      <c r="H15" t="s" s="27">
-        <v>60</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" t="s" s="27">
-        <v>61</v>
-      </c>
-      <c r="K15" t="s" s="27">
-        <v>31</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" t="s" s="29">
-        <v>31</v>
-      </c>
+      <c r="A15" t="s" s="35">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="36">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="36">
+        <v>53</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" t="s" s="36">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s" s="36">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s" s="36">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" ht="56.05" customHeight="1">
-      <c r="A16" t="s" s="26">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s" s="27">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s" s="27">
-        <v>63</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" t="s" s="27">
-        <v>26</v>
-      </c>
-      <c r="K16" t="s" s="27">
-        <v>31</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" t="s" s="29">
-        <v>31</v>
-      </c>
+      <c r="A16" t="s" s="35">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="36">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s" s="36">
+        <v>58</v>
+      </c>
+      <c r="D16" s="37">
+        <v>43413</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" t="s" s="36">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s" s="39">
+        <v>52</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="31">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s" s="16">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s" s="16">
-        <v>64</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="32"/>
+      <c r="A17" t="s" s="44">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s" s="17">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s" s="17">
+        <v>60</v>
+      </c>
+      <c r="D17" s="45">
+        <v>43413</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/import/feasible-path.xlsx
+++ b/import/feasible-path.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId4"/>
+    <sheet name="2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -87,8 +88,85 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nghia Doan</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+List of items, can be files, entries, documents, etc anything that needs tracking, monitoring, or add information to the working process.
+In case if it is a list, use the pipe “|” character to separate the items.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+List of items, can be files, entries, documents, etc anything that needs tracking, monitoring, or add information to the working process.
+In case if it is a list, use the pipe “|” character to separate the items.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+Already exists (Y) or placeholder for future (N)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+Additional states to be connected to</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Nghia Doan:
+Already exists (Y) or placeholder for future (N)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>identification</t>
   </si>
@@ -144,6 +222,9 @@
     <t>alternate_routes_completed</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>BEGIN</t>
   </si>
   <si>
@@ -165,25 +246,58 @@
     <t>Case application</t>
   </si>
   <si>
-    <t>Serious Harm associated with phase 1 cofferdam footprint and dewatering – 2417 m2 November 1, 2018 to July 15, 2019|Serious Harm associated with phase 2 cofferdam footprint and dewatering – 1867 m2 July 15, 2019 to July 15 2020| Serious Harm associated with 1088 m2 of infill associated with moving the dam downstream|Fourteen conditions relating to avoiding and mitigating serious harm|6 contingency measures</t>
-  </si>
-  <si>
-    <t>monitoring-report-process-case-1</t>
+    <t>Serious Harm associated with phase 1 cofferdam footprint and dewatering – 2417 m2 November 1, 2018 to July 15, 2019|Serious Harm associated with phase 2 cofferdam footprint and dewatering – 1867 m2 July 15, 2019 to July 15 2020| Serious Harm associated with 1088 m2 of infill associated with moving the dam downstream|Fourteen conditions relating to avoiding and mitigating serious harm|Six contingency measures</t>
+  </si>
+  <si>
+    <t>monitoring-mitigation-report-process-case-1</t>
+  </si>
+  <si>
+    <t>monitoring-offsetting-report-process-case-1</t>
   </si>
   <si>
     <t>PROCESS</t>
   </si>
   <si>
-    <t>Monitoring and report for avoidance and mitigation</t>
-  </si>
-  <si>
-    <t>begin-monitoring-report-case-1</t>
-  </si>
-  <si>
-    <t>Begin monitoring and report for avoidance and mitigation</t>
-  </si>
-  <si>
-    <t>Fourteen conditions relating to avoiding and mitigating serious harm|6 contingency measures</t>
+    <t>Monitoring and report for avoidance, mitigation</t>
+  </si>
+  <si>
+    <t>Fourteen conditions relating to avoiding and mitigating serious harm</t>
+  </si>
+  <si>
+    <t>begin-monitoring-mitigation-report-case-1</t>
+  </si>
+  <si>
+    <t>Begin monitoring and report for avoidance, mitigation</t>
+  </si>
+  <si>
+    <t>decision-monitoring-mitigation-report-case-1</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>Decision for avoidance and mitigation monitoring report</t>
+  </si>
+  <si>
+    <t>end-monitoring-mitigation-report-case-1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>End monitoring and report for avoidance and mitigation</t>
+  </si>
+  <si>
+    <t>end-case-1</t>
+  </si>
+  <si>
+    <t>Monitoring and report for offsetting</t>
+  </si>
+  <si>
+    <t>Six contingency measures</t>
   </si>
   <si>
     <t>Habitat enhancement - creating a Walleye spawning shoal (760m2) at an offsite location|
@@ -191,7 +305,13 @@
 5 criteria to assess the implementation and effectiveness of the measures</t>
   </si>
   <si>
-    <t>report-1-case-1</t>
+    <t>begin-monitoring-offsetting-report-case-1</t>
+  </si>
+  <si>
+    <t>Begin monitoring and report for offsetting</t>
+  </si>
+  <si>
+    <t>offsetting-report-1-case-1</t>
   </si>
   <si>
     <t>site-visit-case-1</t>
@@ -203,85 +323,296 @@
     <t>INPUT</t>
   </si>
   <si>
-    <t>Interim report 1 on effectiveness</t>
+    <t>Completed interim report 1 on effectiveness</t>
   </si>
   <si>
     <t>Parks Canada</t>
   </si>
   <si>
-    <t>Interim report 1</t>
-  </si>
-  <si>
-    <t>receive-report-1-case-1</t>
-  </si>
-  <si>
-    <t>DECISION</t>
+    <t>Interim offsetting report 1</t>
+  </si>
+  <si>
+    <t>receive-offsetting-report-1-case-1</t>
+  </si>
+  <si>
+    <t>Offsetting interim report 2 received</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 1 compliance verification</t>
+  </si>
+  <si>
+    <t>offsetting-report-2-case-1</t>
+  </si>
+  <si>
+    <t>Completed interim report 2 on effectiveness</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 2</t>
+  </si>
+  <si>
+    <t>receive-offsetting-report-2-case-1</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 2 compliance verification</t>
+  </si>
+  <si>
+    <t>offsetting-report-3-case-1</t>
+  </si>
+  <si>
+    <t>Final report on effectiveness</t>
+  </si>
+  <si>
+    <t>Final offsetting report</t>
+  </si>
+  <si>
+    <t>receive-offsetting-report-3-case-1</t>
+  </si>
+  <si>
+    <t>Offsetting final report received</t>
+  </si>
+  <si>
+    <t>Final offsetting report compliance verification</t>
+  </si>
+  <si>
+    <t>decision-monitoring-offsetting-report-case-1</t>
+  </si>
+  <si>
+    <t>Decision for offsetting monitoring report</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 1 compliance verification|Interim offsetting report 2 compliance verification|Final offsetting report compliance verification</t>
+  </si>
+  <si>
+    <t>end-monitoring-offsetting-report-case-1</t>
+  </si>
+  <si>
+    <t>End monitoring and report for offsetting</t>
+  </si>
+  <si>
+    <t>End case</t>
+  </si>
+  <si>
+    <t>case-2</t>
+  </si>
+  <si>
+    <t>PSPC (public works canada), Temiskaming Dam and Bridge Replacement</t>
+  </si>
+  <si>
+    <t>begin-case-2</t>
+  </si>
+  <si>
+    <t>authorization-issuance-case-2</t>
+  </si>
+  <si>
+    <t>Authorization issued on June 5, 2015.</t>
+  </si>
+  <si>
+    <t>2015-06-05</t>
+  </si>
+  <si>
+    <t>Serious Harm assicated with temportrya consturciton activitiies|Serious Harm associated with permanent habitat loss due to new footprint Downstream (1088m2)|Minimum 2, maximum 5 offsetting reports depending on the interim reports|14 conditions relating to avoiding and mitigating serious harm|3 offsetting measures and 3 contingency measures</t>
+  </si>
+  <si>
+    <t>monitoring-report-mitigation-process-case-2</t>
+  </si>
+  <si>
+    <t>monitoring-report-offsetting-process-case-2</t>
+  </si>
+  <si>
+    <t>Monitoring report for avoidance and mitigation</t>
+  </si>
+  <si>
+    <t>14 conditions relating to avoiding and mitigating serious harm</t>
+  </si>
+  <si>
+    <t>begin-monitoring-mitigation-report-case-2</t>
+  </si>
+  <si>
+    <t>Begin monitoring and report for avoidance and mitigation</t>
+  </si>
+  <si>
+    <t>site-visit-case-2</t>
+  </si>
+  <si>
+    <t>mitigation-report-1-case-2</t>
+  </si>
+  <si>
+    <t>2017-10-26</t>
+  </si>
+  <si>
+    <t>Site visit compliance verification</t>
+  </si>
+  <si>
+    <t>Completed interim report 1 mitigation</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>PWGSC</t>
+  </si>
+  <si>
+    <t>Interim mitigation report 1</t>
+  </si>
+  <si>
+    <t>receive-mitigation-report-1-case-2</t>
+  </si>
+  <si>
+    <t>Received interim mitigation report 1</t>
+  </si>
+  <si>
+    <t>2016-03-29</t>
+  </si>
+  <si>
+    <t>Interim mitigation report 1 received late</t>
+  </si>
+  <si>
+    <t>mitigation-report-2-case-2</t>
+  </si>
+  <si>
+    <t>Completed interim mitigation report 2 on mitigation</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>Interim mitigation report 2</t>
+  </si>
+  <si>
+    <t>receive-mitigation-report-2-case-2</t>
+  </si>
+  <si>
+    <t>Received interim mitigation report 2</t>
+  </si>
+  <si>
+    <t>2017-04-06</t>
+  </si>
+  <si>
+    <t>Interim mitigation report 2 received late</t>
+  </si>
+  <si>
+    <t>decision-monitoring-mitigation-report-case-2</t>
+  </si>
+  <si>
+    <t>Site visit compliance verification|Interim mitigation report 1 received late|Interim mitigation report 2 received late</t>
+  </si>
+  <si>
+    <t>end-monitoring-mitigation-report-case-2</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>2017-03-15</t>
+  </si>
+  <si>
+    <t>end-case-2</t>
+  </si>
+  <si>
+    <t>Monitoring report for offsetting and dam operation</t>
+  </si>
+  <si>
+    <t>3 offsetting measures and 3 contingency measures</t>
+  </si>
+  <si>
+    <t>begin-monitoring-offsetting-report-case-2</t>
+  </si>
+  <si>
+    <t>Begin monitoring and report for offsetting and operation dam</t>
+  </si>
+  <si>
+    <t>offsetting-report-1-case-2</t>
+  </si>
+  <si>
+    <t>Completes interim offsetting report 1</t>
+  </si>
+  <si>
+    <t>receive-offsetting -report-1-case-2</t>
+  </si>
+  <si>
+    <t>Interim offsetting  report 1 received</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 1 not received</t>
+  </si>
+  <si>
+    <t>offsetting-report-2-case-2</t>
+  </si>
+  <si>
+    <t>Interim offsetting  report 2</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>receive-offsetting-report-2-case-2</t>
+  </si>
+  <si>
+    <t>Interim offsetting  report 2r eceived</t>
+  </si>
+  <si>
+    <t>2018-01-26</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 2 received late</t>
+  </si>
+  <si>
+    <t>offsetting-report-3-case-2</t>
+  </si>
+  <si>
+    <t>Interim offsetting  report 3</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 3</t>
+  </si>
+  <si>
+    <t>receive-offsetting-report-3-case-2</t>
   </si>
   <si>
     <t>Report received</t>
   </si>
   <si>
-    <t>Verified interim report 1</t>
-  </si>
-  <si>
-    <t>report-2-case-1</t>
-  </si>
-  <si>
-    <t>Interim report 2 on effectiveness</t>
-  </si>
-  <si>
-    <t>Interim report 2</t>
-  </si>
-  <si>
-    <t>receive-report-2-case-1</t>
-  </si>
-  <si>
-    <t>Verified interim report 2</t>
-  </si>
-  <si>
-    <t>report-3-case-1</t>
-  </si>
-  <si>
-    <t>Final report  on effectiveness</t>
-  </si>
-  <si>
-    <t>decision-monitoring-report-case-1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Decision for monitoring report</t>
-  </si>
-  <si>
-    <t>All monitoring reports</t>
-  </si>
-  <si>
-    <t>All verified monitoring reports</t>
-  </si>
-  <si>
-    <t>end-monitoring-report-case-1</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>End monitoring and report for avoidance and mitigation</t>
-  </si>
-  <si>
-    <t>end-case-1</t>
-  </si>
-  <si>
-    <t>End case</t>
+    <t>Interim offsetting report 3 not received</t>
+  </si>
+  <si>
+    <t>decision-monitoring-offsetting-report-case-2</t>
+  </si>
+  <si>
+    <t>Interim offsetting report 1 not received|Interim offsetting report 2 received late|Interim offsetting report 3 not received</t>
+  </si>
+  <si>
+    <t>Input for  authorization amendment</t>
+  </si>
+  <si>
+    <t>end-monitoring-offsetting-report-case-2</t>
+  </si>
+  <si>
+    <t>End monitoring and report for offsetting and operation dam</t>
+  </si>
+  <si>
+    <t>authorization-amendment-case-2</t>
+  </si>
+  <si>
+    <t>Authorization issued on October 25, 2019.</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring reports mus be completed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-mm -dd"/>
+    <numFmt numFmtId="60" formatCode="yyyy&quot;-&quot;mm&quot; -&quot;dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -306,7 +637,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +658,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -465,7 +814,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -477,76 +826,166 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,13 +994,13 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,25 +1009,145 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -601,7 +1160,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -671,76 +1230,265 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,14 +1512,22 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ffeaeaea"/>
       <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="fffefffe"/>
+      <rgbColor rgb="ffdddddd"/>
+      <rgbColor rgb="ffb0eb9a"/>
+      <rgbColor rgb="ffffb1a6"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -1828,17 +2584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7188" style="1" customWidth="1"/>
+    <col min="2" max="9" width="16.3516" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.9766" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.4219" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.4219" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.7" customHeight="1">
@@ -1862,6 +2619,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="68.7" customHeight="1">
       <c r="A2" t="s" s="9">
@@ -1884,6 +2642,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="14"/>
       <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" s="16"/>
@@ -1898,6 +2657,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -1936,374 +2696,533 @@
       <c r="L4" t="s" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" ht="32.35" customHeight="1">
-      <c r="A5" t="s" s="23">
+      <c r="M4" t="s" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="32.45" customHeight="1">
+      <c r="A5" t="s" s="24">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="24">
+      <c r="B5" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" t="s" s="24">
+      <c r="C5" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="27">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" t="s" s="25">
         <v>21</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" ht="320.05" customHeight="1">
-      <c r="A6" t="s" s="29">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="30">
+      <c r="J5" t="s" s="28">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="30">
+      <c r="K5" s="27"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" ht="320.2" customHeight="1">
+      <c r="A6" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="32">
         <v>23</v>
       </c>
-      <c r="D6" s="31">
+      <c r="C6" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="D6" s="33">
         <v>43413</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" t="s" s="30">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s" s="30">
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" t="s" s="32">
         <v>25</v>
       </c>
-      <c r="I6" t="s" s="30">
+      <c r="H6" t="s" s="32">
         <v>26</v>
       </c>
-      <c r="J6" t="s" s="33">
-        <v>21</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" ht="56.05" customHeight="1">
-      <c r="A7" t="s" s="35">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="36">
+      <c r="I6" t="s" s="32">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="36">
+      <c r="J6" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="D7" s="37">
+      <c r="L6" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" ht="56.2" customHeight="1">
+      <c r="A7" t="s" s="37">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="38">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="38">
+        <v>30</v>
+      </c>
+      <c r="D7" s="39">
         <v>43413</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" t="s" s="36">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" t="s" s="38">
+        <v>31</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" t="s" s="38">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s" s="41">
+        <v>22</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" ht="56.2" customHeight="1">
+      <c r="A8" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="38">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="D8" s="39">
+        <v>43413</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s" s="41">
+        <v>22</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" ht="56.2" customHeight="1">
+      <c r="A9" t="s" s="37">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="38">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s" s="41">
+        <v>38</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" ht="56.2" customHeight="1">
+      <c r="A10" t="s" s="37">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="38">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="38">
+        <v>40</v>
+      </c>
+      <c r="D10" s="39">
+        <v>43413</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" t="s" s="38">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s" s="41">
+        <v>38</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" ht="164.2" customHeight="1">
+      <c r="A11" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="32">
         <v>29</v>
       </c>
-      <c r="J7" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="8" ht="164.05" customHeight="1">
-      <c r="A8" t="s" s="35">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s" s="36">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="36">
-        <v>30</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="C11" t="s" s="32">
+        <v>42</v>
+      </c>
+      <c r="D11" s="33">
         <v>43413</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" t="s" s="36">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s" s="36">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s" s="36">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s" s="41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="36">
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" t="s" s="32">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s" s="32">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s" s="32">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s" s="35">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="36">
+      <c r="K11" s="34"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" ht="44.2" customHeight="1">
+      <c r="A12" t="s" s="31">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s" s="32">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="32">
+        <v>46</v>
+      </c>
+      <c r="D12" s="33">
+        <v>43413</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" t="s" s="32">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s" s="32">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" ht="32.2" customHeight="1">
+      <c r="A13" t="s" s="31">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="32">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33">
+        <v>43767</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" t="s" s="32">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" ht="44.2" customHeight="1">
+      <c r="A14" t="s" s="31">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s" s="32">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="32">
+        <v>51</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33">
+        <v>43830</v>
+      </c>
+      <c r="F14" t="s" s="32">
+        <v>52</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" t="s" s="32">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s" s="32">
+        <v>54</v>
+      </c>
+      <c r="J14" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" ht="44.2" customHeight="1">
+      <c r="A15" t="s" s="31">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="32">
         <v>35</v>
       </c>
-      <c r="D9" s="37">
-        <v>43767</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" t="s" s="36">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="35">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s" s="36">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s" s="36">
-        <v>37</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37">
-        <v>43830</v>
-      </c>
-      <c r="F10" t="s" s="36">
+      <c r="C15" t="s" s="32">
+        <v>55</v>
+      </c>
+      <c r="D15" s="33">
+        <v>43798</v>
+      </c>
+      <c r="E15" s="33">
+        <v>43798</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" t="s" s="32">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s" s="32">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s" s="32">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="36"/>
+    </row>
+    <row r="16" ht="44.2" customHeight="1">
+      <c r="A16" t="s" s="31">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="32">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s" s="32">
+        <v>58</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33">
+        <v>44196</v>
+      </c>
+      <c r="F16" t="s" s="32">
+        <v>52</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" t="s" s="32">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s" s="32">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="36"/>
+    </row>
+    <row r="17" ht="44.2" customHeight="1">
+      <c r="A17" t="s" s="31">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s" s="32">
+        <v>55</v>
+      </c>
+      <c r="D17" s="33">
+        <v>44187</v>
+      </c>
+      <c r="E17" s="33">
+        <v>44187</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" t="s" s="32">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s" s="32">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s" s="32">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" ht="32.2" customHeight="1">
+      <c r="A18" t="s" s="31">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="32">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s" s="32">
+        <v>63</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33">
+        <v>44561</v>
+      </c>
+      <c r="F18" t="s" s="32">
+        <v>52</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" t="s" s="32">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s" s="32">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s" s="35">
         <v>38</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" t="s" s="36">
+      <c r="K18" s="34"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="36"/>
+    </row>
+    <row r="19" ht="56.2" customHeight="1">
+      <c r="A19" t="s" s="31">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s" s="32">
+        <v>66</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" t="s" s="32">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s" s="32">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s" s="32">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" ht="116.2" customHeight="1">
+      <c r="A20" t="s" s="31">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s" s="32">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s" s="32">
+        <v>69</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" t="s" s="32">
+        <v>70</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" t="s" s="32">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" ht="164.2" customHeight="1">
+      <c r="A21" t="s" s="31">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s" s="32">
         <v>39</v>
       </c>
-      <c r="I10" t="s" s="36">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="35">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s" s="36">
+      <c r="C21" t="s" s="32">
+        <v>72</v>
+      </c>
+      <c r="D21" s="33">
+        <v>43413</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" t="s" s="32">
+        <v>44</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" t="s" s="32">
         <v>41</v>
       </c>
-      <c r="C11" t="s" s="36">
-        <v>42</v>
-      </c>
-      <c r="D11" s="37">
-        <v>43798</v>
-      </c>
-      <c r="E11" s="37">
-        <v>43798</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" t="s" s="36">
+      <c r="J21" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="36"/>
+    </row>
+    <row r="22" ht="20.45" customHeight="1">
+      <c r="A22" t="s" s="45">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="46">
         <v>39</v>
       </c>
-      <c r="H11" t="s" s="36">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s" s="36">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="35">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s" s="36">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="36">
-        <v>45</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37">
-        <v>44196</v>
-      </c>
-      <c r="F12" t="s" s="36">
-        <v>38</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" t="s" s="36">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s" s="36">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="35">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s" s="36">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s" s="36">
-        <v>42</v>
-      </c>
-      <c r="D13" s="37">
-        <v>44187</v>
-      </c>
-      <c r="E13" s="37">
-        <v>44187</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" t="s" s="36">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s" s="36">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s" s="36">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s" s="39">
-        <v>21</v>
-      </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" t="s" s="35">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s" s="36">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s" s="36">
-        <v>50</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37">
-        <v>44561</v>
-      </c>
-      <c r="F14" t="s" s="36">
-        <v>38</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="42"/>
-      <c r="I14" t="s" s="43">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s" s="39">
-        <v>52</v>
-      </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" t="s" s="35">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s" s="36">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s" s="36">
-        <v>53</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" t="s" s="36">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s" s="36">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s" s="36">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s" s="39">
-        <v>52</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" ht="56.05" customHeight="1">
-      <c r="A16" t="s" s="35">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s" s="36">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s" s="36">
-        <v>58</v>
-      </c>
-      <c r="D16" s="37">
+      <c r="C22" t="s" s="46">
+        <v>73</v>
+      </c>
+      <c r="D22" s="47">
         <v>43413</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" t="s" s="36">
-        <v>59</v>
-      </c>
-      <c r="J16" t="s" s="39">
-        <v>52</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="44">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s" s="17">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s" s="17">
-        <v>60</v>
-      </c>
-      <c r="D17" s="45">
-        <v>43413</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -2314,4 +3233,813 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="13" width="16.3516" style="51" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="52">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="53">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" ht="62.7" customHeight="1">
+      <c r="A2" t="s" s="57">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s" s="58">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s" s="59">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="60">
+        <v>76</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+    </row>
+    <row r="4" ht="26.7" customHeight="1">
+      <c r="A4" t="s" s="52">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="69">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="69">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="69">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="69">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s" s="69">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s" s="69">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s" s="69">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s" s="70">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s" s="69">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s" s="70">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s" s="71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="26.45" customHeight="1">
+      <c r="A5" t="s" s="72">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s" s="73">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="73">
+        <v>20</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" t="s" s="73">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s" s="74">
+        <v>22</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" ht="266.2" customHeight="1">
+      <c r="A6" t="s" s="79">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s" s="80">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="80">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s" s="81">
+        <v>79</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" t="s" s="80">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s" s="80">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s" s="80">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s" s="81">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s" s="80">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s" s="81">
+        <v>22</v>
+      </c>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" ht="50.2" customHeight="1">
+      <c r="A7" t="s" s="84">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s" s="85">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="85">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s" s="86">
+        <v>79</v>
+      </c>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87"/>
+      <c r="G7" t="s" s="85">
+        <v>84</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" t="s" s="85">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K7" s="87"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="89"/>
+    </row>
+    <row r="8" ht="50.2" customHeight="1">
+      <c r="A8" t="s" s="84">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s" s="85">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="85">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s" s="86">
+        <v>79</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" t="s" s="85">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s" s="85">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" ht="26.2" customHeight="1">
+      <c r="A9" t="s" s="84">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s" s="85">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="85">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s" s="86">
+        <v>89</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="85"/>
+      <c r="H9" t="s" s="85">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s" s="85">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+    </row>
+    <row r="10" ht="26.2" customHeight="1">
+      <c r="A10" t="s" s="84">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s" s="85">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s" s="85">
+        <v>91</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" t="s" s="86">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s" s="85">
+        <v>93</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" t="s" s="85">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s" s="85">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+    </row>
+    <row r="11" ht="38.2" customHeight="1">
+      <c r="A11" t="s" s="84">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s" s="85">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="85">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s" s="86">
+        <v>97</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" t="s" s="85">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s" s="85">
+        <v>98</v>
+      </c>
+      <c r="I11" t="s" s="85">
+        <v>99</v>
+      </c>
+      <c r="J11" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" t="s" s="91">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" ht="38.2" customHeight="1">
+      <c r="A12" t="s" s="84">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s" s="85">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="85">
+        <v>100</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" t="s" s="86">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s" s="85">
+        <v>93</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" t="s" s="85">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s" s="85">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
+    </row>
+    <row r="13" ht="38.2" customHeight="1">
+      <c r="A13" t="s" s="84">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s" s="85">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="85">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s" s="86">
+        <v>105</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" t="s" s="85">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s" s="85">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s" s="85">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
+      <c r="M13" t="s" s="91">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="74.2" customHeight="1">
+      <c r="A14" t="s" s="84">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s" s="85">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s" s="85">
+        <v>36</v>
+      </c>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" t="s" s="85">
+        <v>108</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" t="s" s="85">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="89"/>
+    </row>
+    <row r="15" ht="38.2" customHeight="1">
+      <c r="A15" t="s" s="84">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s" s="85">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s" s="85">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s" s="86">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s" s="86">
+        <v>111</v>
+      </c>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" t="s" s="85">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s" s="86">
+        <v>22</v>
+      </c>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="89"/>
+    </row>
+    <row r="16" ht="50.2" customHeight="1">
+      <c r="A16" t="s" s="92">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s" s="93">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="93">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s" s="94">
+        <v>79</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" t="s" s="93">
+        <v>114</v>
+      </c>
+      <c r="H16" s="95"/>
+      <c r="I16" t="s" s="93">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+    </row>
+    <row r="17" ht="50.2" customHeight="1">
+      <c r="A17" t="s" s="92">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s" s="93">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="93">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s" s="94">
+        <v>79</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" t="s" s="93">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" ht="26.2" customHeight="1">
+      <c r="A18" t="s" s="92">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s" s="93">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s" s="93">
+        <v>118</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" t="s" s="94">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s" s="93">
+        <v>93</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" t="s" s="93">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s" s="93">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" ht="26.2" customHeight="1">
+      <c r="A19" t="s" s="92">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s" s="93">
+        <v>120</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" t="s" s="93">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s" s="93">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s" s="93">
+        <v>122</v>
+      </c>
+      <c r="J19" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" t="s" s="99">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" ht="26.2" customHeight="1">
+      <c r="A20" t="s" s="92">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s" s="93">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="93">
+        <v>123</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" t="s" s="94">
+        <v>124</v>
+      </c>
+      <c r="F20" t="s" s="93">
+        <v>93</v>
+      </c>
+      <c r="G20" s="100"/>
+      <c r="H20" t="s" s="93">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s" s="93">
+        <v>125</v>
+      </c>
+      <c r="J20" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="97"/>
+    </row>
+    <row r="21" ht="38.2" customHeight="1">
+      <c r="A21" t="s" s="92">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s" s="93">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s" s="94">
+        <v>127</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" t="s" s="93">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s" s="93">
+        <v>128</v>
+      </c>
+      <c r="I21" t="s" s="93">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" t="s" s="99">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" ht="26.2" customHeight="1">
+      <c r="A22" t="s" s="92">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s" s="93">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s" s="93">
+        <v>130</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" t="s" s="94">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s" s="93">
+        <v>93</v>
+      </c>
+      <c r="G22" s="100"/>
+      <c r="H22" t="s" s="93">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s" s="93">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
+    </row>
+    <row r="23" ht="38.2" customHeight="1">
+      <c r="A23" t="s" s="92">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s" s="93">
+        <v>134</v>
+      </c>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" t="s" s="93">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s" s="93">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s" s="93">
+        <v>136</v>
+      </c>
+      <c r="J23" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" t="s" s="99">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" ht="86.2" customHeight="1">
+      <c r="A24" t="s" s="92">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s" s="93">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s" s="93">
+        <v>69</v>
+      </c>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" t="s" s="93">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s" s="93">
+        <v>138</v>
+      </c>
+      <c r="I24" t="s" s="93">
+        <v>139</v>
+      </c>
+      <c r="J24" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="97"/>
+    </row>
+    <row r="25" ht="38.2" customHeight="1">
+      <c r="A25" t="s" s="92">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s" s="93">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s" s="93">
+        <v>140</v>
+      </c>
+      <c r="D25" s="94"/>
+      <c r="E25" t="s" s="94">
+        <v>111</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" t="s" s="93">
+        <v>141</v>
+      </c>
+      <c r="J25" t="s" s="94">
+        <v>22</v>
+      </c>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+    </row>
+    <row r="26" ht="38.45" customHeight="1">
+      <c r="A26" t="s" s="101">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s" s="102">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s" s="102">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s" s="103">
+        <v>143</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" t="s" s="102">
+        <v>138</v>
+      </c>
+      <c r="H26" t="s" s="102">
+        <v>144</v>
+      </c>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="106"/>
+    </row>
+    <row r="27" ht="14.7" customHeight="1">
+      <c r="A27" t="s" s="107">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s" s="66">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s" s="66">
+        <v>73</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="109"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>